--- a/biology/Botanique/Alchémille_des_champs/Alchémille_des_champs.xlsx
+++ b/biology/Botanique/Alchémille_des_champs/Alchémille_des_champs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alch%C3%A9mille_des_champs</t>
+          <t>Alchémille_des_champs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphanes arvensis
 L'Alchémille des champs ou petit pied de lion (Aphanes arvensis) est une espèce de plantes à fleurs du genre Aphanes et de la famille des Rosacées.
 Synonymes :
-Alchemilla arvensis (L.) Scop. - non accepté par ITIS[1].
+Alchemilla arvensis (L.) Scop. - non accepté par ITIS.
 Alchemilla cuneifolia Nutt.
 Alchemilla occidentalis Nutt.
 Aphanes occidentalis (Nutt.) Rydb.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alch%C3%A9mille_des_champs</t>
+          <t>Alchémille_des_champs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée annuelle haute de 5 à 15 cm, rarement plus, aux tiges velues, plus ou moins couchées à la base. Les feuilles sont velues à 3 lobes profondément incisés. Les fleurs sont minuscules, verdâtres, à 4 sépales, groupées en petits glomérules opposés aux feuilles. Les graines sont longues de 0,8 à 1,5 mm.
 </t>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alch%C3%A9mille_des_champs</t>
+          <t>Alchémille_des_champs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la plupart des pays d'Europe, presque partout en France ; en Asie, jusqu'à l'Iran.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alch%C3%A9mille_des_champs</t>
+          <t>Alchémille_des_champs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante se développe sur des terres argileuses ou sablonneuses, dans les jardins, terrains vagues, bords des chemins… Elle fleurit d'avril à octobre.
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alch%C3%A9mille_des_champs</t>
+          <t>Alchémille_des_champs</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Au XVIIe siècle, l'herboriste Nicholas Culpeper recommandait de la consommer en salade malgré la difficulté, vu sa petite taille, d'en récolter des quantités suffisantes.
 </t>
